--- a/public/imports/images.xlsx
+++ b/public/imports/images.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -51,60 +51,9 @@
     <t>Modules\Slider\Entities\Slider</t>
   </si>
   <si>
-    <t>assets/images/demos/demo-5/slider/slide-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/slider/slide-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/banners/banner-3.jpg</t>
-  </si>
-  <si>
     <t>Modules\Product\Entities\Product</t>
   </si>
   <si>
-    <t>assets/images/demos/demo-5/products/product-5-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-5-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-1-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-1-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-12-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-12-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-13.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-14.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-10-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-10-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-9-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-9-1.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-8-2.jpg</t>
-  </si>
-  <si>
-    <t>assets/images/demos/demo-5/products/product-8-1.jpg</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -112,12 +61,63 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/slider/slide-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/slider/slide-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/banners/banner-3.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-5-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-5-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-1-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-1-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-8-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-8-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-9-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-9-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-10-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-10-2.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-14.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-13.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-12-1.jpg</t>
+  </si>
+  <si>
+    <t>/assets/images/demos/demo-5/products/product-12-2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -218,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -491,16 +493,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -517,16 +519,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -543,19 +545,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -563,25 +565,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -589,25 +591,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -615,25 +617,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -641,28 +643,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,28 +672,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -699,51 +701,57 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -751,28 +759,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -780,28 +788,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -809,28 +817,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -838,28 +846,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -867,28 +875,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -896,28 +904,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -925,28 +933,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -954,28 +962,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -983,28 +991,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1012,28 +1020,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1041,28 +1049,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1070,28 +1078,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1099,28 +1107,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1128,28 +1136,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1157,28 +1165,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1186,28 +1194,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1215,28 +1223,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>

--- a/public/imports/images.xlsx
+++ b/public/imports/images.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -63,61 +63,61 @@
     <t>k</t>
   </si>
   <si>
-    <t>/assets/images/demos/demo-5/slider/slide-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/slider/slide-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/banners/banner-3.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-5-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-5-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-1-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-1-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-8-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-8-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-9-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-9-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-10-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-10-2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-14.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-13.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-12-1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/images/demos/demo-5/products/product-12-2.jpg</t>
+    <t>assets/images/demos/demo-5/slider/slide-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/slider/slide-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/banners/banner-3.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-5-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-12-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-12-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-13.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-14.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-10-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-10-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-9-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-9-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-8-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-8-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-1-2.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-1-1.jpg</t>
+  </si>
+  <si>
+    <t>assets/images/demos/demo-5/products/product-5-2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -218,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H28">
         <v>1</v>
